--- a/Trading/Book4.xlsx
+++ b/Trading/Book4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MB15433\Others\Trading\Code\Trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1CA501D-1673-447A-AC6B-624D16E7863E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E9154D8-5987-4A01-A654-50100D761EF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20655" windowHeight="11505" xr2:uid="{06566D7E-E9A9-4C0F-BF2A-FE187D36FA96}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11505" xr2:uid="{83CEF68B-FBFE-4B7E-876B-D7A8107D319E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,17 +60,27 @@
     <t>Max Perf</t>
   </si>
   <si>
+    <t>Av</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Av</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,12 +89,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightDown">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightDown">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,14 +118,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,289 +447,300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C176682A-FE07-4C11-9867-8C2F53E3167B}">
-  <dimension ref="F6:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D624B05D-EA56-4D56-901E-BB6A59975D4C}">
+  <dimension ref="E5:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:Q14"/>
+      <selection activeCell="E5" sqref="E5:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="5" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+      <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O6" t="s">
+      <c r="N5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P6" t="s">
+      <c r="O5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="P5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F7">
+    <row r="6" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E6" s="4">
         <v>2024</v>
       </c>
-      <c r="G7">
-        <v>0.21917552617179226</v>
-      </c>
-      <c r="H7">
-        <v>0.26457629809993299</v>
-      </c>
-      <c r="I7">
-        <v>9</v>
+      <c r="F6" s="5">
+        <v>0.22953438592151088</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.27264370236114155</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.74752475247524752</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" s="8">
+        <v>3.2021921657588354E-2</v>
+      </c>
+      <c r="M6" s="8">
+        <v>4.0627475721838134E-2</v>
+      </c>
+      <c r="N6">
+        <v>202</v>
+      </c>
+      <c r="O6" s="8">
+        <v>-1.0118890043501971E-2</v>
+      </c>
+      <c r="P6" s="8">
+        <v>9.8701389877510648E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.24230498762859742</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.25766486840734659</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.86</v>
       </c>
       <c r="J7">
-        <v>0.74874371859296485</v>
+        <v>4</v>
       </c>
       <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" s="8">
+        <v>4.651641959034189E-2</v>
+      </c>
+      <c r="M7" s="8">
+        <v>2.3866396681993012E-2</v>
+      </c>
+      <c r="N7">
+        <v>250</v>
+      </c>
+      <c r="O7" s="8">
+        <v>-1.3256246230509805E-2</v>
+      </c>
+      <c r="P7" s="8">
+        <v>9.291751882632493E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>2022</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-0.19442824232404154</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.23169635412195067</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.16334661354581673</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>7.6924420359213361E-2</v>
+      </c>
+      <c r="N8">
+        <v>251</v>
+      </c>
+      <c r="O8" s="8">
+        <v>3.7854336233511088E-2</v>
+      </c>
+      <c r="P8" s="8">
+        <v>9.8793947143255512E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E9" s="4">
+        <v>2021</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.268927362908572</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.32763211739118692</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.86904761904761907</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" s="8">
+        <v>4.8270803224188738E-2</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1.7703521573062219E-2</v>
+      </c>
+      <c r="N9">
+        <v>252</v>
+      </c>
+      <c r="O9" s="8">
+        <v>-1.2853950800213787E-2</v>
+      </c>
+      <c r="P9" s="8">
+        <v>9.2354369902713396E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.16258921994069531</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.24364916800495506</v>
+      </c>
+      <c r="H10" s="2">
         <v>7</v>
       </c>
-      <c r="L7">
+      <c r="I10" s="7">
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="M7">
-        <v>3.5700340512103836E-2</v>
-      </c>
-      <c r="N7">
-        <v>4.1239950230207552E-2</v>
-      </c>
-      <c r="O7">
-        <v>199</v>
-      </c>
-      <c r="P7">
-        <v>-1.0118890043501971E-2</v>
-      </c>
-      <c r="Q7">
-        <v>9.8701389877510648E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F8">
-        <v>2023</v>
-      </c>
-      <c r="G8">
-        <v>0.24230498762859742</v>
-      </c>
-      <c r="H8">
-        <v>0.25766486840734659</v>
-      </c>
-      <c r="I8">
+      <c r="L10" s="8">
+        <v>3.4971804454507427E-2</v>
+      </c>
+      <c r="M10" s="8">
+        <v>3.2950512581594614E-2</v>
+      </c>
+      <c r="N10">
+        <v>253</v>
+      </c>
+      <c r="O10" s="8">
+        <v>-6.2331054888040471E-2</v>
+      </c>
+      <c r="P10" s="8">
+        <v>9.6044503524312708E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="O11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="O12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.14178554281506681</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.26665724205731617</v>
+      </c>
+      <c r="H13" s="9">
         <v>7</v>
       </c>
-      <c r="J8">
-        <v>0.86</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>4.651641959034189E-2</v>
-      </c>
-      <c r="N8">
-        <v>2.3866396681993012E-2</v>
-      </c>
-      <c r="O8">
-        <v>250</v>
-      </c>
-      <c r="P8">
-        <v>-1.3256246230509805E-2</v>
-      </c>
-      <c r="Q8">
-        <v>9.291751882632493E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F9">
-        <v>2022</v>
-      </c>
-      <c r="G9">
-        <v>-0.19442824232404154</v>
-      </c>
-      <c r="H9">
-        <v>0.23169635412195067</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>0.16334661354581673</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>7.6924420359213361E-2</v>
-      </c>
-      <c r="O9">
-        <v>251</v>
-      </c>
-      <c r="P9">
-        <v>3.7854336233511088E-2</v>
-      </c>
-      <c r="Q9">
-        <v>9.8793947143255512E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F10">
-        <v>2021</v>
-      </c>
-      <c r="G10">
-        <v>0.268927362908572</v>
-      </c>
-      <c r="H10">
-        <v>0.32763211739118692</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>0.86904761904761907</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>4.8270803224188738E-2</v>
-      </c>
-      <c r="N10">
-        <v>1.7703521573062219E-2</v>
-      </c>
-      <c r="O10">
-        <v>252</v>
-      </c>
-      <c r="P10">
-        <v>-1.2853950800213787E-2</v>
-      </c>
-      <c r="Q10">
-        <v>9.2354369902713396E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F11">
-        <v>2020</v>
-      </c>
-      <c r="G11">
-        <v>0.16258921994069531</v>
-      </c>
-      <c r="H11">
-        <v>0.24364916800495506</v>
-      </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
-      <c r="J11">
-        <v>0.34782608695652173</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>3.4971804454507427E-2</v>
-      </c>
-      <c r="N11">
-        <v>3.2950512581594614E-2</v>
-      </c>
-      <c r="O11">
-        <v>253</v>
-      </c>
-      <c r="P11">
-        <v>-6.2331054888040471E-2</v>
-      </c>
-      <c r="Q11">
-        <v>9.6044503524312708E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <v>0.1397137708651231</v>
-      </c>
-      <c r="H14">
-        <v>0.26504376120507445</v>
-      </c>
-      <c r="I14">
-        <v>6.8</v>
-      </c>
-      <c r="J14">
-        <v>0.59779280762858433</v>
-      </c>
-      <c r="M14">
-        <v>3.3091873556228377E-2</v>
-      </c>
-      <c r="N14">
-        <v>3.8536960285214153E-2</v>
+      <c r="I13" s="7">
+        <v>0.59754901440504093</v>
+      </c>
+      <c r="L13" s="5">
+        <v>3.2356189785325284E-2</v>
+      </c>
+      <c r="M13" s="5">
+        <v>3.8414465383540271E-2</v>
       </c>
     </row>
   </sheetData>
